--- a/Negocio/Sobrero - Proyect.xlsx
+++ b/Negocio/Sobrero - Proyect.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\my-news\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\my-news\Negocio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A608C658-FBDE-47AA-9B68-C0F739E8A44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B173CA-C59B-4B82-B0FF-57B7E06C201B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -850,166 +850,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1018,122 +862,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1141,6 +898,249 @@
     <xf numFmtId="44" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1356,16 +1356,16 @@
                   <c:v>44578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44581</c:v>
+                  <c:v>44580</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44583</c:v>
+                  <c:v>44582</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44584</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44585</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44586</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44571</c:v>
@@ -1374,34 +1374,34 @@
                   <c:v>44587</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44602</c:v>
+                  <c:v>44601</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44624</c:v>
+                  <c:v>44615</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44628</c:v>
+                  <c:v>44615</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44638</c:v>
+                  <c:v>44621</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44587</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>44646</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>44646</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44652</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>44646</c:v>
+                  <c:v>44630</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44654</c:v>
@@ -2302,7 +2302,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -2317,25 +2317,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
@@ -2344,13 +2344,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2</c:v>
@@ -3395,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Y84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3416,19 +3416,19 @@
   <sheetData>
     <row r="2" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="44"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="11" t="s">
         <v>1</v>
       </c>
@@ -3447,32 +3447,32 @@
       <c r="N3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="48"/>
+      <c r="P3" s="103"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="79"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="65"/>
     </row>
     <row r="4" spans="2:25" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="30">
         <v>1</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="1">
         <f>(M4+1)-L4</f>
         <v>1</v>
@@ -3494,34 +3494,34 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="56"/>
+      <c r="P4" s="57"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="68"/>
     </row>
     <row r="5" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="29">
         <v>2</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="9">
         <f>(M5+1)-L5</f>
         <v>2</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" ref="J5:J33" si="0">(M5+1)-L5</f>
+        <f t="shared" ref="J5:J32" si="0">(M5+1)-L5</f>
         <v>2</v>
       </c>
       <c r="K5" s="2">
@@ -3537,8 +3537,8 @@
       <c r="N5" s="9">
         <v>1</v>
       </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="59"/>
       <c r="R5" s="4"/>
       <c r="S5" s="19" t="s">
         <v>13</v>
@@ -3552,23 +3552,23 @@
       <c r="V5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="75" t="s">
+      <c r="X5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="75"/>
+      <c r="Y5" s="51"/>
     </row>
     <row r="6" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="29">
         <v>3</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="9">
         <f>(M6+1)-L6</f>
         <v>2</v>
@@ -3590,8 +3590,8 @@
       <c r="N6" s="9">
         <v>2</v>
       </c>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="59"/>
       <c r="R6" s="4"/>
       <c r="S6" s="23" t="s">
         <v>29</v>
@@ -3606,23 +3606,23 @@
         <f>U6/$X$8/$X$6</f>
         <v>1108.5600568181819</v>
       </c>
-      <c r="X6" s="76">
+      <c r="X6" s="52">
         <v>8</v>
       </c>
-      <c r="Y6" s="76"/>
+      <c r="Y6" s="52"/>
     </row>
     <row r="7" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="29">
         <v>4</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="9">
         <f>(M7+1)-L7</f>
         <v>2</v>
@@ -3644,8 +3644,8 @@
       <c r="N7" s="9">
         <v>3</v>
       </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="59"/>
       <c r="R7" s="4"/>
       <c r="S7" s="23" t="s">
         <v>38</v>
@@ -3660,23 +3660,23 @@
         <f t="shared" ref="V7:V8" si="1">U7/$X$8/$X$6</f>
         <v>1039.2816477272727</v>
       </c>
-      <c r="X7" s="75" t="s">
+      <c r="X7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="Y7" s="75"/>
+      <c r="Y7" s="51"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="29">
         <v>5</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="9">
         <f>(M8+1)-L8</f>
         <v>1</v>
@@ -3698,8 +3698,8 @@
       <c r="N8" s="9">
         <v>4</v>
       </c>
-      <c r="O8" s="57"/>
-      <c r="P8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="59"/>
       <c r="R8" s="4"/>
       <c r="S8" s="25" t="s">
         <v>39</v>
@@ -3714,25 +3714,25 @@
         <f t="shared" si="1"/>
         <v>900.72482954545455</v>
       </c>
-      <c r="X8" s="76">
+      <c r="X8" s="52">
         <v>22</v>
       </c>
-      <c r="Y8" s="76"/>
+      <c r="Y8" s="52"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="29">
         <v>6</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="9">
-        <f t="shared" ref="I9:J33" si="2">(M9+1)-L9</f>
+        <f t="shared" ref="I9:I33" si="2">(M9+1)-L9</f>
         <v>1</v>
       </c>
       <c r="J9" s="9">
@@ -3752,25 +3752,25 @@
       <c r="N9" s="9">
         <v>5</v>
       </c>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="59"/>
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
       <c r="D10" s="31"/>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112">
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="43">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J10" s="112">
+      <c r="J10" s="43">
         <f>SUM(J4:J9)</f>
         <v>9</v>
       </c>
@@ -3784,64 +3784,64 @@
       <c r="M10" s="18">
         <v>44570</v>
       </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="77"/>
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85">
+      <c r="C11" s="115"/>
+      <c r="D11" s="34">
         <v>7</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87">
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="35">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="36">
         <f>I11*($V$8*$X$6)+I11*($V$6*$X$6)</f>
         <v>32148.558181818182</v>
       </c>
-      <c r="L11" s="89">
+      <c r="L11" s="37">
         <v>44571</v>
       </c>
-      <c r="M11" s="89">
+      <c r="M11" s="37">
         <v>44572</v>
       </c>
-      <c r="N11" s="87">
+      <c r="N11" s="35">
         <v>6</v>
       </c>
-      <c r="O11" s="90" t="s">
+      <c r="O11" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="91"/>
+      <c r="P11" s="81"/>
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -3850,7 +3850,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K12" s="88">
+      <c r="K12" s="36">
         <f>I12*($V$8*$X$6)+I12*($V$6*$X$6)</f>
         <v>48222.83727272728</v>
       </c>
@@ -3863,22 +3863,22 @@
       <c r="N12" s="9">
         <v>7</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="83"/>
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="5">
         <v>9</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3887,7 +3887,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K13" s="88">
+      <c r="K13" s="36">
         <f t="shared" ref="K13:K18" si="3">I13*($V$8*$X$6)+I13*($V$6*$X$6)</f>
         <v>32148.558181818182</v>
       </c>
@@ -3900,59 +3900,59 @@
       <c r="N13" s="9">
         <v>8</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="62"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="83"/>
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="9">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K14" s="88">
+        <v>2</v>
+      </c>
+      <c r="K14" s="36">
         <f>I14*($V$8*$X$6)+I14*($V$6*$X$6)</f>
-        <v>48222.83727272728</v>
+        <v>32148.558181818182</v>
       </c>
       <c r="L14" s="6">
         <v>44578</v>
       </c>
       <c r="M14" s="6">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="N14" s="9">
         <v>8</v>
       </c>
-      <c r="O14" s="61"/>
-      <c r="P14" s="62"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="83"/>
       <c r="R14" s="4"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="5">
         <v>11</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3961,35 +3961,35 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K15" s="88">
+      <c r="K15" s="36">
         <f t="shared" si="3"/>
         <v>32148.558181818182</v>
       </c>
       <c r="L15" s="6">
+        <v>44580</v>
+      </c>
+      <c r="M15" s="6">
         <v>44581</v>
-      </c>
-      <c r="M15" s="6">
-        <v>44582</v>
       </c>
       <c r="N15" s="9">
         <v>9</v>
       </c>
-      <c r="O15" s="61"/>
-      <c r="P15" s="62"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="83"/>
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="5">
         <v>12</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3998,35 +3998,35 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K16" s="88">
+      <c r="K16" s="36">
         <f t="shared" si="3"/>
         <v>32148.558181818182</v>
       </c>
       <c r="L16" s="6">
+        <v>44582</v>
+      </c>
+      <c r="M16" s="6">
         <v>44583</v>
-      </c>
-      <c r="M16" s="6">
-        <v>44584</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="61"/>
-      <c r="P16" s="62"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="83"/>
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="5">
         <v>13</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4035,35 +4035,35 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K17" s="88">
+      <c r="K17" s="36">
         <f t="shared" si="3"/>
         <v>16074.279090909091</v>
       </c>
       <c r="L17" s="6">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="M17" s="6">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="N17" s="9">
         <v>12</v>
       </c>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="83"/>
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="5">
         <v>14</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4072,331 +4072,331 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K18" s="88">
+      <c r="K18" s="36">
         <f t="shared" si="3"/>
         <v>16074.279090909091</v>
       </c>
       <c r="L18" s="6">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="M18" s="6">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="N18" s="9">
         <v>13</v>
       </c>
-      <c r="O18" s="61"/>
-      <c r="P18" s="62"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="83"/>
       <c r="R18" s="4"/>
     </row>
     <row r="19" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="113" t="s">
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116">
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="44">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="J19" s="116">
+        <v>15</v>
+      </c>
+      <c r="J19" s="44">
         <f>SUM(J11:J18)</f>
-        <v>16</v>
-      </c>
-      <c r="K19" s="131">
+        <v>15</v>
+      </c>
+      <c r="K19" s="50">
         <f>I19*($V$8*$X$6)+I19*($V$6*$X$6)</f>
-        <v>257188.46545454545</v>
-      </c>
-      <c r="L19" s="95">
+        <v>241114.18636363637</v>
+      </c>
+      <c r="L19" s="39">
         <v>44571</v>
       </c>
-      <c r="M19" s="95">
-        <v>44586</v>
-      </c>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="97"/>
+      <c r="M19" s="39">
+        <v>44585</v>
+      </c>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="79"/>
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="30">
         <v>15</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K20" s="7">
         <f>I20*($V$7*$X$6)</f>
-        <v>124713.79772727273</v>
+        <v>116399.54454545454</v>
       </c>
       <c r="L20" s="8">
         <v>44587</v>
       </c>
       <c r="M20" s="8">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="N20" s="1">
         <v>14</v>
       </c>
-      <c r="O20" s="55" t="s">
+      <c r="O20" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="56"/>
+      <c r="P20" s="57"/>
       <c r="R20" s="4"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="29">
         <v>16</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="9">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K21" s="2">
         <f>I21*($V$7*$X$6)</f>
-        <v>182913.57</v>
+        <v>116399.54454545454</v>
       </c>
       <c r="L21" s="6">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="M21" s="6">
-        <v>44623</v>
+        <v>44614</v>
       </c>
       <c r="N21" s="9">
         <v>15</v>
       </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="59"/>
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="29">
         <v>17</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" ref="K22:K24" si="4">I22*($V$7*$X$6)</f>
-        <v>33257.012727272726</v>
+        <v>49885.519090909089</v>
       </c>
       <c r="L22" s="6">
-        <v>44624</v>
+        <v>44615</v>
       </c>
       <c r="M22" s="6">
-        <v>44627</v>
+        <v>44620</v>
       </c>
       <c r="N22" s="9">
         <v>16</v>
       </c>
-      <c r="O22" s="57"/>
-      <c r="P22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="59"/>
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="29">
         <v>18</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="4"/>
-        <v>83142.531818181815</v>
+        <v>49885.519090909089</v>
       </c>
       <c r="L23" s="6">
-        <v>44628</v>
+        <v>44615</v>
       </c>
       <c r="M23" s="6">
-        <v>44637</v>
+        <v>44620</v>
       </c>
       <c r="N23" s="9">
         <v>16</v>
       </c>
-      <c r="O23" s="57"/>
-      <c r="P23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="59"/>
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="29">
         <v>19</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="4"/>
-        <v>66514.025454545452</v>
+        <v>74828.278636363626</v>
       </c>
       <c r="L24" s="6">
-        <v>44638</v>
+        <v>44621</v>
       </c>
       <c r="M24" s="6">
-        <v>44645</v>
+        <v>44629</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="57"/>
-      <c r="P24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="59"/>
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="117" t="s">
+      <c r="E25" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120">
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="45">
         <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="J25" s="120">
+        <v>43</v>
+      </c>
+      <c r="J25" s="45">
         <f>SUM(J20:J24)</f>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K25" s="13">
         <f>I25*($V$6*$X$6)</f>
-        <v>523240.34681818186</v>
+        <v>381344.6595454546</v>
       </c>
       <c r="L25" s="14">
         <v>44587</v>
       </c>
       <c r="M25" s="14">
-        <v>44645</v>
-      </c>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
+        <v>44629</v>
+      </c>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="99"/>
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100">
+      <c r="C26" s="91"/>
+      <c r="D26" s="40">
         <v>20</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87">
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="35">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J26" s="87">
+      <c r="J26" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K26" s="88">
+      <c r="K26" s="36">
         <f>I26*($V$6*$X$6)</f>
         <v>62079.363181818189</v>
       </c>
-      <c r="L26" s="89">
-        <v>44646</v>
-      </c>
-      <c r="M26" s="89">
-        <v>44652</v>
-      </c>
-      <c r="N26" s="87">
+      <c r="L26" s="37">
+        <v>44630</v>
+      </c>
+      <c r="M26" s="37">
+        <v>44636</v>
+      </c>
+      <c r="N26" s="35">
         <v>19</v>
       </c>
-      <c r="O26" s="101" t="s">
+      <c r="O26" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="P26" s="102"/>
+      <c r="P26" s="101"/>
       <c r="R26" s="4"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="5">
         <v>21</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4410,67 +4410,67 @@
         <v>62079.363181818189</v>
       </c>
       <c r="L27" s="6">
-        <v>44646</v>
+        <v>44637</v>
       </c>
       <c r="M27" s="6">
-        <v>44652</v>
+        <v>44643</v>
       </c>
       <c r="N27" s="9">
         <v>19</v>
       </c>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="59"/>
       <c r="R27" s="4"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="5">
         <v>22</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
       <c r="I28" s="9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="2">
         <f>I28*($V$6*$X$6)</f>
-        <v>8868.4804545454554</v>
+        <v>17736.960909090911</v>
       </c>
       <c r="L28" s="6">
-        <v>44652</v>
+        <v>44644</v>
       </c>
       <c r="M28" s="6">
-        <v>44652</v>
+        <v>44645</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="57"/>
-      <c r="P28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="59"/>
       <c r="R28" s="4"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="5">
         <v>23</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -4484,65 +4484,65 @@
         <v>17736.960909090911</v>
       </c>
       <c r="L29" s="6">
-        <v>44652</v>
+        <v>44646</v>
       </c>
       <c r="M29" s="6">
-        <v>44653</v>
+        <v>44647</v>
       </c>
       <c r="N29" s="9">
         <v>22</v>
       </c>
-      <c r="O29" s="57"/>
-      <c r="P29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="59"/>
       <c r="R29" s="4"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="103"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="121" t="s">
+      <c r="B30" s="94"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="124">
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="46">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J30" s="124">
+        <v>18</v>
+      </c>
+      <c r="J30" s="46">
         <f>SUM(J26:J29)</f>
-        <v>17</v>
-      </c>
-      <c r="K30" s="125">
+        <v>18</v>
+      </c>
+      <c r="K30" s="47">
         <f>J30*($V$6*$X$6)</f>
-        <v>150764.16772727275</v>
-      </c>
-      <c r="L30" s="106">
-        <v>44646</v>
-      </c>
-      <c r="M30" s="106">
-        <v>44653</v>
-      </c>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="108"/>
+        <v>159632.64818181819</v>
+      </c>
+      <c r="L30" s="42">
+        <v>44630</v>
+      </c>
+      <c r="M30" s="42">
+        <v>44647</v>
+      </c>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="50"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="30">
         <v>24</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
       <c r="I31" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -4564,24 +4564,24 @@
       <c r="N31" s="1">
         <v>23</v>
       </c>
-      <c r="O31" s="55" t="s">
+      <c r="O31" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="P31" s="56"/>
+      <c r="P31" s="57"/>
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="29">
         <v>25</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
       <c r="I32" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4603,25 +4603,25 @@
       <c r="N32" s="9">
         <v>24</v>
       </c>
-      <c r="O32" s="57"/>
-      <c r="P32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
       <c r="R32" s="4"/>
     </row>
     <row r="33" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="126" t="s">
+      <c r="E33" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="129">
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="48">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J33" s="129">
+      <c r="J33" s="48">
         <f>SUM(J31:J32)</f>
         <v>3</v>
       </c>
@@ -4635,15 +4635,15 @@
       <c r="M33" s="16">
         <v>44656</v>
       </c>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="72"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="97"/>
       <c r="R33" s="4"/>
     </row>
     <row r="34" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K34" s="130">
+      <c r="K34" s="49">
         <f>K10+K19+K25+K30+K33</f>
-        <v>1037614.7454545456</v>
+        <v>888513.25954545476</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
@@ -4720,16 +4720,26 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="O20:P24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="S3:V4"/>
-    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B11:C19"/>
+    <mergeCell ref="B4:C10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E3:H3"/>
     <mergeCell ref="B31:C33"/>
     <mergeCell ref="O4:P9"/>
     <mergeCell ref="N10:P10"/>
@@ -4745,34 +4755,24 @@
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="O26:P29"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="O20:P24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="S3:V4"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="E14:H14"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E15:H15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="B11:C19"/>
-    <mergeCell ref="B4:C10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="N30:P30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Negocio/Sobrero - Proyect.xlsx
+++ b/Negocio/Sobrero - Proyect.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\my-news\Negocio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B173CA-C59B-4B82-B0FF-57B7E06C201B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416AE8CE-6453-4000-9568-C1C0A2A190F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
+    <sheet name="Backup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
   <si>
     <t>Tareas</t>
   </si>
@@ -171,9 +172,6 @@
     <t>Configuracion ambiente productivo</t>
   </si>
   <si>
-    <t>Gerente Produccion, Diseñador</t>
-  </si>
-  <si>
     <t>10, 11</t>
   </si>
   <si>
@@ -190,16 +188,260 @@
   </si>
   <si>
     <t>Dias p/ Costo</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Predecessors</t>
+  </si>
+  <si>
+    <t>Resource Names</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Analisis</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>Mon 22-01-03 8:00</t>
+  </si>
+  <si>
+    <t>Fri 22-01-14 17:00</t>
+  </si>
+  <si>
+    <t>Requerimientos funcionales</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>Tue 22-01-04 17:00</t>
+  </si>
+  <si>
+    <t>Gerente de Produccion</t>
+  </si>
+  <si>
+    <t>Requerimientos no funcionales</t>
+  </si>
+  <si>
+    <t>Wed 22-01-05 8:00</t>
+  </si>
+  <si>
+    <t>Thu 22-01-06 17:00</t>
+  </si>
+  <si>
+    <t>Fri 22-01-07 8:00</t>
+  </si>
+  <si>
+    <t>Mon 22-01-10 17:00</t>
+  </si>
+  <si>
+    <t>Tue 22-01-11 8:00</t>
+  </si>
+  <si>
+    <t>Wed 22-01-12 17:00</t>
+  </si>
+  <si>
+    <t>Borrador de las especificaciones del SW</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>Thu 22-01-13 8:00</t>
+  </si>
+  <si>
+    <t>Thu 22-01-13 17:00</t>
+  </si>
+  <si>
+    <t>Revisar documentacion</t>
+  </si>
+  <si>
+    <t>Fri 22-01-14 8:00</t>
+  </si>
+  <si>
+    <t>13 days</t>
+  </si>
+  <si>
+    <t>Mon 22-01-17 8:00</t>
+  </si>
+  <si>
+    <t>Wed 22-02-02 17:00</t>
+  </si>
+  <si>
+    <t>Tue 22-01-18 17:00</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>Wed 22-01-19 8:00</t>
+  </si>
+  <si>
+    <t>Fri 22-01-21 17:00</t>
+  </si>
+  <si>
+    <t>Mon 22-01-24 8:00</t>
+  </si>
+  <si>
+    <t>Tue 22-01-25 17:00</t>
+  </si>
+  <si>
+    <t>Wed 22-01-26 8:00</t>
+  </si>
+  <si>
+    <t>Thu 22-01-27 17:00</t>
+  </si>
+  <si>
+    <t>Prototipo basado en las especificaciones</t>
+  </si>
+  <si>
+    <t>Fri 22-01-28 8:00</t>
+  </si>
+  <si>
+    <t>Mon 22-01-31 17:00</t>
+  </si>
+  <si>
+    <t>13,12</t>
+  </si>
+  <si>
+    <t>Obtener aprobacion para continuar</t>
+  </si>
+  <si>
+    <t>Tue 22-02-01 8:00</t>
+  </si>
+  <si>
+    <t>Tue 22-02-01 17:00</t>
+  </si>
+  <si>
+    <t>Wed 22-02-02 8:00</t>
+  </si>
+  <si>
+    <t>43 days</t>
+  </si>
+  <si>
+    <t>Thu 22-02-03 8:00</t>
+  </si>
+  <si>
+    <t>Mon 22-04-04 17:00</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>Tue 22-02-22 17:00</t>
+  </si>
+  <si>
+    <t>Wed 22-02-23 8:00</t>
+  </si>
+  <si>
+    <t>Mon 22-03-14 17:00</t>
+  </si>
+  <si>
+    <t>Prueba de desarrolladores</t>
+  </si>
+  <si>
+    <t>6 days</t>
+  </si>
+  <si>
+    <t>Tue 22-03-15 8:00</t>
+  </si>
+  <si>
+    <t>Tue 22-03-22 17:00</t>
+  </si>
+  <si>
+    <t>9 days</t>
+  </si>
+  <si>
+    <t>Wed 22-03-23 8:00</t>
+  </si>
+  <si>
+    <t>20,21</t>
+  </si>
+  <si>
+    <t>11 days</t>
+  </si>
+  <si>
+    <t>Tue 22-04-05 8:00</t>
+  </si>
+  <si>
+    <t>Tue 22-04-19 17:00</t>
+  </si>
+  <si>
+    <t>Test de caja blanca</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>Wed 22-04-13 17:00</t>
+  </si>
+  <si>
+    <t>Test de caja negra</t>
+  </si>
+  <si>
+    <t>Thu 22-04-14 8:00</t>
+  </si>
+  <si>
+    <t>Fri 22-04-15 17:00</t>
+  </si>
+  <si>
+    <t>24,25</t>
+  </si>
+  <si>
+    <t>Revision final</t>
+  </si>
+  <si>
+    <t>Mon 22-04-18 8:00</t>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>Wed 22-04-20 8:00</t>
+  </si>
+  <si>
+    <t>Mon 22-04-25 17:00</t>
+  </si>
+  <si>
+    <t>Configuracion de ambiente productivo</t>
+  </si>
+  <si>
+    <t>Fri 22-04-22 17:00</t>
+  </si>
+  <si>
+    <t>Mon 22-04-25 8:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,8 +487,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF363636"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +567,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFE3E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -659,19 +931,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -752,12 +1011,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,42 +1276,249 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,241 +1526,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1323,25 +1824,25 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44562</c:v>
+                  <c:v>44564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44563</c:v>
+                  <c:v>44566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44565</c:v>
+                  <c:v>44568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44567</c:v>
+                  <c:v>44572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44569</c:v>
+                  <c:v>44574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44570</c:v>
+                  <c:v>44575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44562</c:v>
+                  <c:v>44564</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44571</c:v>
@@ -2272,13 +2773,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -2290,7 +2791,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
@@ -3395,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Y84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3416,24 +3917,24 @@
   <sheetData>
     <row r="2" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="106"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="106"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="74"/>
       <c r="I3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>3</v>
@@ -3445,77 +3946,77 @@
         <v>11</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="103"/>
+      <c r="P3" s="116"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="63" t="s">
+      <c r="S3" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="65"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="112"/>
     </row>
     <row r="4" spans="2:25" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="121"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="30">
         <v>1</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="1">
         <f>(M4+1)-L4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1">
         <f>(M4+1)-L4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="7">
         <f>J4*($V$6*$X$6)</f>
-        <v>8868.4804545454554</v>
+        <v>17736.960909090911</v>
       </c>
       <c r="L4" s="8">
-        <v>44562</v>
+        <v>44564</v>
       </c>
       <c r="M4" s="8">
-        <v>44562</v>
+        <v>44565</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="57"/>
+      <c r="P4" s="84"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="68"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="115"/>
     </row>
     <row r="5" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="122"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="29">
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="51">
         <v>2</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="9">
         <f>(M5+1)-L5</f>
         <v>2</v>
@@ -3529,16 +4030,16 @@
         <v>17736.960909090911</v>
       </c>
       <c r="L5" s="6">
-        <v>44563</v>
+        <v>44566</v>
       </c>
       <c r="M5" s="6">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="N5" s="9">
         <v>1</v>
       </c>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="86"/>
       <c r="R5" s="4"/>
       <c r="S5" s="19" t="s">
         <v>13</v>
@@ -3552,46 +4053,48 @@
       <c r="V5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="51" t="s">
+      <c r="X5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="51"/>
+      <c r="Y5" s="120"/>
     </row>
     <row r="6" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="122"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="29">
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="51">
         <v>3</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="9">
         <f>(M6+1)-L6</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" s="2">
-        <f>I6*($V$6*$X$6)</f>
-        <v>17736.960909090911</v>
+        <f>I6*($V$7*$X$6)</f>
+        <v>33257.012727272726</v>
       </c>
       <c r="L6" s="6">
-        <v>44565</v>
+        <v>44568</v>
       </c>
       <c r="M6" s="6">
-        <v>44566</v>
+        <v>44571</v>
       </c>
       <c r="N6" s="9">
         <v>2</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="59"/>
+      <c r="O6" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="86"/>
       <c r="R6" s="4"/>
       <c r="S6" s="23" t="s">
         <v>29</v>
@@ -3606,23 +4109,23 @@
         <f>U6/$X$8/$X$6</f>
         <v>1108.5600568181819</v>
       </c>
-      <c r="X6" s="52">
+      <c r="X6" s="121">
         <v>8</v>
       </c>
-      <c r="Y6" s="52"/>
+      <c r="Y6" s="121"/>
     </row>
     <row r="7" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="122"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="29">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="51">
         <v>4</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="9">
         <f>(M7+1)-L7</f>
         <v>2</v>
@@ -3636,16 +4139,18 @@
         <v>17736.960909090911</v>
       </c>
       <c r="L7" s="6">
-        <v>44567</v>
+        <v>44572</v>
       </c>
       <c r="M7" s="6">
-        <v>44568</v>
+        <v>44573</v>
       </c>
       <c r="N7" s="9">
         <v>3</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59"/>
+      <c r="O7" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="86"/>
       <c r="R7" s="4"/>
       <c r="S7" s="23" t="s">
         <v>38</v>
@@ -3660,23 +4165,23 @@
         <f t="shared" ref="V7:V8" si="1">U7/$X$8/$X$6</f>
         <v>1039.2816477272727</v>
       </c>
-      <c r="X7" s="51" t="s">
+      <c r="X7" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="Y7" s="51"/>
+      <c r="Y7" s="120"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="29">
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="51">
         <v>5</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="9">
         <f>(M8+1)-L8</f>
         <v>1</v>
@@ -3690,16 +4195,16 @@
         <v>8868.4804545454554</v>
       </c>
       <c r="L8" s="6">
-        <v>44569</v>
+        <v>44574</v>
       </c>
       <c r="M8" s="6">
-        <v>44569</v>
+        <v>44574</v>
       </c>
       <c r="N8" s="9">
         <v>4</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="59"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="86"/>
       <c r="R8" s="4"/>
       <c r="S8" s="25" t="s">
         <v>39</v>
@@ -3714,23 +4219,23 @@
         <f t="shared" si="1"/>
         <v>900.72482954545455</v>
       </c>
-      <c r="X8" s="52">
+      <c r="X8" s="121">
         <v>22</v>
       </c>
-      <c r="Y8" s="52"/>
+      <c r="Y8" s="121"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="29">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="51">
         <v>6</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="9">
         <f t="shared" ref="I9:I33" si="2">(M9+1)-L9</f>
         <v>1</v>
@@ -3744,65 +4249,65 @@
         <v>8868.4804545454554</v>
       </c>
       <c r="L9" s="6">
-        <v>44570</v>
+        <v>44575</v>
       </c>
       <c r="M9" s="6">
-        <v>44570</v>
+        <v>44575</v>
       </c>
       <c r="N9" s="9">
         <v>5</v>
       </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="86"/>
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="124"/>
-      <c r="C10" s="125"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="31"/>
-      <c r="E10" s="126" t="s">
+      <c r="E10" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
       <c r="I10" s="43">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10" s="43">
         <f>SUM(J4:J9)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K10" s="17">
         <f>J10*($V$6*$X$6)</f>
-        <v>79816.324090909096</v>
+        <v>106421.76545454547</v>
       </c>
       <c r="L10" s="18">
-        <v>44562</v>
+        <v>44564</v>
       </c>
       <c r="M10" s="18">
-        <v>44570</v>
-      </c>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="77"/>
+        <v>44575</v>
+      </c>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="88"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+    <row r="11" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="115"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="34">
         <v>7</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3824,24 +4329,24 @@
       <c r="N11" s="35">
         <v>6</v>
       </c>
-      <c r="O11" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="81"/>
+      <c r="O11" s="154" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="155"/>
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -3863,22 +4368,22 @@
       <c r="N12" s="9">
         <v>7</v>
       </c>
-      <c r="O12" s="82"/>
-      <c r="P12" s="83"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="155"/>
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="5">
         <v>9</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3900,22 +4405,22 @@
       <c r="N13" s="9">
         <v>8</v>
       </c>
-      <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="157"/>
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3937,22 +4442,24 @@
       <c r="N14" s="9">
         <v>8</v>
       </c>
-      <c r="O14" s="82"/>
-      <c r="P14" s="83"/>
+      <c r="O14" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="151"/>
       <c r="R14" s="4"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="5">
         <v>11</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3974,22 +4481,24 @@
       <c r="N15" s="9">
         <v>9</v>
       </c>
-      <c r="O15" s="82"/>
-      <c r="P15" s="83"/>
+      <c r="O15" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="151"/>
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="5">
         <v>12</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -4009,24 +4518,26 @@
         <v>44583</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="82"/>
-      <c r="P16" s="83"/>
+        <v>44</v>
+      </c>
+      <c r="O16" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="151"/>
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="5">
         <v>13</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4048,22 +4559,24 @@
       <c r="N17" s="9">
         <v>12</v>
       </c>
-      <c r="O17" s="82"/>
-      <c r="P17" s="83"/>
+      <c r="O17" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="151"/>
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="5">
         <v>14</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4085,20 +4598,22 @@
       <c r="N18" s="9">
         <v>13</v>
       </c>
-      <c r="O18" s="82"/>
-      <c r="P18" s="83"/>
+      <c r="O18" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="151"/>
       <c r="R18" s="4"/>
     </row>
     <row r="19" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="129" t="s">
+      <c r="E19" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="131"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="44">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4117,25 +4632,25 @@
       <c r="M19" s="39">
         <v>44585</v>
       </c>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="79"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="90"/>
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="85"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="30">
         <v>15</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4157,24 +4672,24 @@
       <c r="N20" s="1">
         <v>14</v>
       </c>
-      <c r="O20" s="56" t="s">
+      <c r="O20" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="57"/>
+      <c r="P20" s="153"/>
       <c r="R20" s="4"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="29">
         <v>16</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="9">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4196,22 +4711,22 @@
       <c r="N21" s="9">
         <v>15</v>
       </c>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="155"/>
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="29">
         <v>17</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4233,22 +4748,22 @@
       <c r="N22" s="9">
         <v>16</v>
       </c>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="157"/>
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="29">
         <v>18</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4270,22 +4785,24 @@
       <c r="N23" s="9">
         <v>16</v>
       </c>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59"/>
+      <c r="O23" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="149"/>
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="29">
         <v>19</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4305,22 +4822,24 @@
         <v>44629</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
+        <v>45</v>
+      </c>
+      <c r="O24" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="149"/>
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="109"/>
       <c r="I25" s="45">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -4339,25 +4858,25 @@
       <c r="M25" s="14">
         <v>44629</v>
       </c>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="99"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="106"/>
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="91"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="40">
         <v>20</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
       <c r="I26" s="35">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4379,24 +4898,24 @@
       <c r="N26" s="35">
         <v>19</v>
       </c>
-      <c r="O26" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="101"/>
+      <c r="O26" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" s="147"/>
       <c r="R26" s="4"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="5">
         <v>21</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4418,22 +4937,24 @@
       <c r="N27" s="9">
         <v>19</v>
       </c>
-      <c r="O27" s="58"/>
-      <c r="P27" s="59"/>
+      <c r="O27" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="159"/>
       <c r="R27" s="4"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="5">
         <v>22</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -4453,24 +4974,24 @@
         <v>44645</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O28" s="58"/>
-      <c r="P28" s="59"/>
+        <v>46</v>
+      </c>
+      <c r="O28" s="154"/>
+      <c r="P28" s="155"/>
       <c r="R28" s="4"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="5">
         <v>23</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -4492,20 +5013,20 @@
       <c r="N29" s="9">
         <v>22</v>
       </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="157"/>
       <c r="R29" s="4"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="94"/>
-      <c r="C30" s="95"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="108" t="s">
+      <c r="E30" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="119"/>
       <c r="I30" s="46">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4524,25 +5045,25 @@
       <c r="M30" s="42">
         <v>44647</v>
       </c>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="123"/>
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="71"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="30">
         <v>24</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -4564,24 +5085,24 @@
       <c r="N31" s="1">
         <v>23</v>
       </c>
-      <c r="O31" s="56" t="s">
+      <c r="O31" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="P31" s="57"/>
+      <c r="P31" s="84"/>
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="29">
         <v>25</v>
       </c>
-      <c r="E32" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
+      <c r="E32" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4603,20 +5124,20 @@
       <c r="N32" s="9">
         <v>24</v>
       </c>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="86"/>
       <c r="R32" s="4"/>
     </row>
     <row r="33" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="111" t="s">
+      <c r="E33" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="113"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
       <c r="I33" s="48">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -4635,15 +5156,15 @@
       <c r="M33" s="16">
         <v>44656</v>
       </c>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="97"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="104"/>
       <c r="R33" s="4"/>
     </row>
     <row r="34" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K34" s="49">
         <f>K10+K19+K25+K30+K33</f>
-        <v>888513.25954545476</v>
+        <v>915118.70090909104</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
@@ -4719,7 +5240,54 @@
       <c r="J84" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="63">
+    <mergeCell ref="O27:P29"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="S3:V4"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O7:P9"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="O20:P22"/>
+    <mergeCell ref="B20:C25"/>
+    <mergeCell ref="B26:C30"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="O31:P32"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E3:H3"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="B11:C19"/>
     <mergeCell ref="B4:C10"/>
@@ -4735,47 +5303,742 @@
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="B31:C33"/>
-    <mergeCell ref="O4:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="O11:P18"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="B20:C25"/>
-    <mergeCell ref="B26:C30"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="O31:P32"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="O26:P29"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="O20:P24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="S3:V4"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="N30:P30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66919A28-3FD1-4952-B898-1646217899C9}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.375" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="124" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="129">
+        <v>87576.320000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="125">
+        <v>17736.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="126">
+        <v>2</v>
+      </c>
+      <c r="F4" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="125">
+        <v>17736.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="126">
+        <v>3</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="125">
+        <v>16628.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="126" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="126">
+        <v>4</v>
+      </c>
+      <c r="F6" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="125">
+        <v>17736.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="126">
+        <v>5</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="125">
+        <v>8868.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="126">
+        <v>6</v>
+      </c>
+      <c r="F8" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="125">
+        <v>8868.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="132">
+        <v>115291.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="126">
+        <v>7</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="125">
+        <v>14411.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="126">
+        <v>9</v>
+      </c>
+      <c r="F11" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="125">
+        <v>21617.279999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="126">
+        <v>10</v>
+      </c>
+      <c r="F12" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="125">
+        <v>14411.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="126">
+        <v>11</v>
+      </c>
+      <c r="F13" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="125">
+        <v>17736.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="126">
+        <v>11</v>
+      </c>
+      <c r="F14" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="125">
+        <v>14411.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="125">
+        <v>16628.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="126">
+        <v>14</v>
+      </c>
+      <c r="F16" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="125">
+        <v>8868.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="126">
+        <v>15</v>
+      </c>
+      <c r="F17" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="125">
+        <v>7205.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="135">
+        <v>410723.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="126">
+        <v>16</v>
+      </c>
+      <c r="F19" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="125">
+        <v>116399.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="133" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="126">
+        <v>18</v>
+      </c>
+      <c r="F20" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="125">
+        <v>116399.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="126">
+        <v>19</v>
+      </c>
+      <c r="F21" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="125">
+        <v>49885.440000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="126">
+        <v>19</v>
+      </c>
+      <c r="F22" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="125">
+        <v>53210.879999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="125">
+        <v>74828.160000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="137" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="137" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="138">
+        <v>155752.95999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="126">
+        <v>22</v>
+      </c>
+      <c r="F25" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="125">
+        <v>58199.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="126">
+        <v>22</v>
+      </c>
+      <c r="F26" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="125">
+        <v>62079.360000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="126" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="125">
+        <v>17736.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="126">
+        <v>26</v>
+      </c>
+      <c r="F28" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="125">
+        <v>17736.96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="139" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="140" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="140" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="140" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="141">
+        <v>35473.919999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="126" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="126">
+        <v>27</v>
+      </c>
+      <c r="F30" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="125">
+        <v>26605.439999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="139" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="126">
+        <v>29</v>
+      </c>
+      <c r="F31" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="125">
+        <v>8868.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="142" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="145">
+        <f>SUM(G29,G24,G18,G9,G2)</f>
+        <v>804817.92000000016</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A32:F32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>